--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chung\Documents\SandBox\Alphavantage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90DF65D-62DC-4024-A0CD-BA125AA5C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DA799-5BAA-4C65-A5D3-B66C2CC7075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31320" yWindow="2250" windowWidth="21600" windowHeight="11430" xr2:uid="{1A172F0B-0334-441C-80AB-EF04997AED4E}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>NBM.v</t>
+    <t>NBM.V</t>
   </si>
 </sst>
 </file>
@@ -386,26 +380,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62D0124-8748-413C-AD89-E4D535D4E4B5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
